--- a/MyProject/MakeBusinessCard/명함신청양식.xlsx
+++ b/MyProject/MakeBusinessCard/명함신청양식.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20605\PycharmProjects\MyProject\MakeBusinessCard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20605\PycharmProjects\PycharmProjects\MyProject\MakeBusinessCard\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="71">
   <si>
     <t>직책</t>
   </si>
@@ -75,6 +75,168 @@
   </si>
   <si>
     <t>IT 제조지원/K5 IT MFG Dept</t>
+  </si>
+  <si>
+    <t>이현준/Hyunjun Lee</t>
+  </si>
+  <si>
+    <t>회장/Chair man</t>
+  </si>
+  <si>
+    <t>신대득/DaeDeuk Shin</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>032-728-4351</t>
+  </si>
+  <si>
+    <t>032-728-4352</t>
+  </si>
+  <si>
+    <t>032-728-4353</t>
+  </si>
+  <si>
+    <t>032-728-4354</t>
+  </si>
+  <si>
+    <t>032-728-4355</t>
+  </si>
+  <si>
+    <t>032-728-4356</t>
+  </si>
+  <si>
+    <t>032-728-4357</t>
+  </si>
+  <si>
+    <t>032-728-4358</t>
+  </si>
+  <si>
+    <t>032-728-4359</t>
+  </si>
+  <si>
+    <t>032-728-4360</t>
+  </si>
+  <si>
+    <t>032-728-4361</t>
+  </si>
+  <si>
+    <t>032-728-4362</t>
+  </si>
+  <si>
+    <t>032-728-4363</t>
+  </si>
+  <si>
+    <t>032-728-4364</t>
+  </si>
+  <si>
+    <t>010-5657-2301</t>
+  </si>
+  <si>
+    <t>010-5657-2302</t>
+  </si>
+  <si>
+    <t>010-5657-2303</t>
+  </si>
+  <si>
+    <t>010-5657-2304</t>
+  </si>
+  <si>
+    <t>010-5657-2305</t>
+  </si>
+  <si>
+    <t>010-5657-2306</t>
+  </si>
+  <si>
+    <t>010-5657-2307</t>
+  </si>
+  <si>
+    <t>010-5657-2308</t>
+  </si>
+  <si>
+    <t>010-5657-2309</t>
+  </si>
+  <si>
+    <t>010-5657-2310</t>
+  </si>
+  <si>
+    <t>010-5657-2311</t>
+  </si>
+  <si>
+    <t>010-5657-2312</t>
+  </si>
+  <si>
+    <t>010-5657-2313</t>
+  </si>
+  <si>
+    <t>010-5657-2314</t>
+  </si>
+  <si>
+    <t>정준호/Junho Jing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">032-728-4348 </t>
+  </si>
+  <si>
+    <t>010-8288-4797</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JunHo.Jeong@amkor.co.kr</t>
+  </si>
+  <si>
+    <t>이광우</t>
+  </si>
+  <si>
+    <t>032-728-4349</t>
+  </si>
+  <si>
+    <t>Gwangwoo.Lee@amkor.co.kr</t>
+  </si>
+  <si>
+    <t>현누</t>
+  </si>
+  <si>
+    <t>Hyunjoo.Yu@amkor.co.kr</t>
   </si>
 </sst>
 </file>
@@ -195,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -216,6 +378,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -497,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -606,13 +769,455 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
     <hyperlink ref="G3" r:id="rId2"/>
     <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="G7:G20" r:id="rId6" display="InKi.Hong@amkor.co.kr"/>
+    <hyperlink ref="G22" r:id="rId7"/>
+    <hyperlink ref="G23" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId9"/>
 </worksheet>
 </file>